--- a/reference/CET15/data_comparison_CET15.xlsx
+++ b/reference/CET15/data_comparison_CET15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisu Jeun\Desktop\2020\RA\CET15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisu Jeun\Documents\GitHub\MMB_forecast_application\reference\CET15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB0B0F-2F75-4547-9C33-76D259295F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6685AB-C160-48B6-A56E-4C9285970755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E358FB9-20D4-4BE9-A711-3D775B78DF0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{1E358FB9-20D4-4BE9-A711-3D775B78DF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>Real GDP</t>
   </si>
@@ -329,7 +329,31 @@
     <t>real investment</t>
   </si>
   <si>
-    <t>vs. our data</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>DFF</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>CE160V?</t>
+  </si>
+  <si>
+    <t>COMPNFB</t>
+  </si>
+  <si>
+    <t>PCNDGC96</t>
+  </si>
+  <si>
+    <t>PCESVC96</t>
+  </si>
+  <si>
+    <t>PCDGCC96</t>
+  </si>
+  <si>
+    <t>FPI?</t>
   </si>
 </sst>
 </file>
@@ -427,7 +451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +493,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -532,6 +562,12 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -544,10 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7666,7 +7699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7227E4C-7FC9-4012-A4AF-8D0F7E0151E1}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7676,8 +7711,8 @@
     <col min="4" max="4" width="8.88671875" style="14"/>
     <col min="5" max="5" width="39" style="14" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="14"/>
-    <col min="7" max="7" width="26.6640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="6"/>
+    <col min="7" max="7" width="11.77734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="53.21875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -7700,7 +7735,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>67</v>
@@ -7723,9 +7758,11 @@
         <v>16</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7747,7 +7784,9 @@
       <c r="F3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7763,11 +7802,13 @@
       <c r="D4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7783,11 +7824,13 @@
       <c r="D5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7803,11 +7846,13 @@
       <c r="D6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -7829,11 +7874,13 @@
       <c r="F7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -7848,14 +7895,16 @@
       <c r="E8" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="13" t="s">
         <v>56</v>
       </c>
@@ -7868,12 +7917,14 @@
       <c r="E9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
@@ -7884,12 +7935,14 @@
         <v>35</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="35"/>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
@@ -7900,12 +7953,14 @@
         <v>37</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="35"/>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -7920,14 +7975,16 @@
       <c r="E12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
@@ -7940,12 +7997,14 @@
       <c r="E13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="38" t="s">
+        <v>105</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="13" t="s">
         <v>60</v>
       </c>
@@ -7956,12 +8015,14 @@
         <v>39</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="35"/>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
@@ -7972,8 +8033,8 @@
         <v>41</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -7989,7 +8050,7 @@
       <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="14" t="s">
         <v>83</v>
       </c>
@@ -8005,7 +8066,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="14" t="s">
         <v>83</v>
       </c>
@@ -8047,7 +8108,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="14" t="s">
         <v>82</v>
       </c>
@@ -8114,7 +8175,7 @@
       <c r="E22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="35" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="14"/>
@@ -8136,8 +8197,10 @@
       <c r="E23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
@@ -8168,31 +8231,34 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="G31" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -17794,12 +17860,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
@@ -21749,7 +21815,7 @@
         <v>109.19081568725656</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G162" si="6">LN(F131/S131)</f>
+        <f t="shared" ref="G131:G143" si="6">LN(F131/S131)</f>
         <v>-7.7529658711456415</v>
       </c>
       <c r="S131" s="28">
@@ -22069,9 +22135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1230B86A-ABEE-4F62-9D12-71A51CA8E115}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22081,12 +22145,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
